--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="340" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="28280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="inserts" sheetId="1" r:id="rId1"/>
+    <sheet name="sizes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,12 +20,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Number of sequences (paired end)</t>
   </si>
   <si>
     <t>Time to insert (seconds)</t>
+  </si>
+  <si>
+    <t>Original file size</t>
+  </si>
+  <si>
+    <t>Size of database after insert</t>
+  </si>
+  <si>
+    <t>Number of sequences</t>
+  </si>
+  <si>
+    <t>34.24 GB</t>
+  </si>
+  <si>
+    <t>68.12 GB</t>
+  </si>
+  <si>
+    <t>743 MB</t>
+  </si>
+  <si>
+    <t>1486 MB</t>
+  </si>
+  <si>
+    <t>2.98 GB</t>
+  </si>
+  <si>
+    <t>5.94 GB</t>
+  </si>
+  <si>
+    <t>11.88 GB</t>
+  </si>
+  <si>
+    <t>23.78 GB</t>
+  </si>
+  <si>
+    <t>47.56 GB</t>
+  </si>
+  <si>
+    <t>371.4 MB</t>
+  </si>
+  <si>
+    <t>258.6 MB</t>
+  </si>
+  <si>
+    <t>517.2 MB</t>
+  </si>
+  <si>
+    <t>1054.72 MB</t>
   </si>
 </sst>
 </file>
@@ -103,7 +152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>inserts!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -115,7 +164,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>inserts!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -148,7 +197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>inserts!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -270,6 +319,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -283,15 +337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -637,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -724,4 +778,124 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>500000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2000000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4000000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>8000000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>16000000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>32000000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>64000000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>91000000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Number of sequences (paired end)</t>
   </si>
@@ -28,52 +28,13 @@
     <t>Time to insert (seconds)</t>
   </si>
   <si>
-    <t>Original file size</t>
-  </si>
-  <si>
-    <t>Size of database after insert</t>
-  </si>
-  <si>
     <t>Number of sequences</t>
   </si>
   <si>
-    <t>34.24 GB</t>
+    <t>Input FASTQ</t>
   </si>
   <si>
-    <t>68.12 GB</t>
-  </si>
-  <si>
-    <t>743 MB</t>
-  </si>
-  <si>
-    <t>1486 MB</t>
-  </si>
-  <si>
-    <t>2.98 GB</t>
-  </si>
-  <si>
-    <t>5.94 GB</t>
-  </si>
-  <si>
-    <t>11.88 GB</t>
-  </si>
-  <si>
-    <t>23.78 GB</t>
-  </si>
-  <si>
-    <t>47.56 GB</t>
-  </si>
-  <si>
-    <t>371.4 MB</t>
-  </si>
-  <si>
-    <t>258.6 MB</t>
-  </si>
-  <si>
-    <t>517.2 MB</t>
-  </si>
-  <si>
-    <t>1054.72 MB</t>
+    <t>Pip Database</t>
   </si>
 </sst>
 </file>
@@ -332,6 +293,279 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sizes!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input FASTQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>sizes!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sizes!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>371.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1486.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3051.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6082.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12165.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sizes!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pip Database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>sizes!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sizes!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>206.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>828.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1699.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3389.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6789.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2106319992"/>
+        <c:axId val="-2106317720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2106319992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of sequences</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2106317720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2106317720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2106319992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -350,6 +584,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -785,113 +1054,123 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>500000</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>371.4</v>
+      </c>
+      <c r="C2">
+        <v>206.9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>1000000</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>743</v>
+      </c>
+      <c r="C3">
+        <v>413.9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>2000000</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="B4">
+        <v>1486</v>
+      </c>
+      <c r="C4">
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>4000000</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>3051.52</v>
+      </c>
+      <c r="C5">
+        <v>1699.84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>8000000</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6">
+        <v>6082.56</v>
+      </c>
+      <c r="C6">
+        <v>3389.44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>16000000</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7">
+        <v>12165.12</v>
+      </c>
+      <c r="C7">
+        <v>6789.12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>32000000</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8">
+        <v>24350.720000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>64000000</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="B9">
+        <v>48701.440000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>91000000</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="B10">
+        <v>69754.880000000005</v>
+      </c>
+      <c r="C10">
+        <v>35061.760000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -331,10 +331,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>sizes!$A$2:$A$7</c:f>
+              <c:f>sizes!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>500000.0</c:v>
                 </c:pt>
@@ -352,16 +352,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.6E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sizes!$B$2:$B$7</c:f>
+              <c:f>sizes!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>371.4</c:v>
                 </c:pt>
@@ -379,6 +382,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12165.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24350.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,10 +412,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>sizes!$A$2:$A$7</c:f>
+              <c:f>sizes!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>500000.0</c:v>
                 </c:pt>
@@ -427,16 +433,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.6E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sizes!$C$2:$C$7</c:f>
+              <c:f>sizes!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>206.9</c:v>
                 </c:pt>
@@ -454,6 +463,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6789.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13568.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,7 +1066,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1148,6 +1160,9 @@
       <c r="B8">
         <v>24350.720000000001</v>
       </c>
+      <c r="C8">
+        <v>13568</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">

--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="28280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inserts" sheetId="1" r:id="rId1"/>
@@ -331,10 +331,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>sizes!$A$2:$A$8</c:f>
+              <c:f>sizes!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500000.0</c:v>
                 </c:pt>
@@ -355,16 +355,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.2E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sizes!$B$2:$B$8</c:f>
+              <c:f>sizes!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>371.4</c:v>
                 </c:pt>
@@ -385,6 +391,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>24350.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48701.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69754.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,10 +424,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>sizes!$A$2:$A$8</c:f>
+              <c:f>sizes!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>500000.0</c:v>
                 </c:pt>
@@ -436,16 +448,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.2E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sizes!$C$2:$C$8</c:f>
+              <c:f>sizes!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>206.9</c:v>
                 </c:pt>
@@ -466,6 +484,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13568.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27146.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35061.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1171,6 +1195,9 @@
       <c r="B9">
         <v>48701.440000000002</v>
       </c>
+      <c r="C9">
+        <v>27146.2</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">

--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Number of sequences (paired end)</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Pip Database</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1100,7 +1103,7 @@
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1110,8 +1113,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>500000</v>
       </c>
@@ -1121,8 +1127,12 @@
       <c r="C2">
         <v>206.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>0.55708131394722671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1000000</v>
       </c>
@@ -1132,8 +1142,12 @@
       <c r="C3">
         <v>413.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">C3/B3</f>
+        <v>0.55706594885598926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2000000</v>
       </c>
@@ -1143,8 +1157,12 @@
       <c r="C4">
         <v>828</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.55720053835800809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4000000</v>
       </c>
@@ -1154,8 +1172,12 @@
       <c r="C5">
         <v>1699.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.55704697986577179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>8000000</v>
       </c>
@@ -1165,8 +1187,12 @@
       <c r="C6">
         <v>3389.44</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.5572390572390572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>16000000</v>
       </c>
@@ -1176,8 +1202,12 @@
       <c r="C7">
         <v>6789.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.55808080808080807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>32000000</v>
       </c>
@@ -1187,8 +1217,12 @@
       <c r="C8">
         <v>13568</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.55719091673675358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>64000000</v>
       </c>
@@ -1198,8 +1232,12 @@
       <c r="C9">
         <v>27146.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.55740035612910011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>91000000</v>
       </c>
@@ -1208,6 +1246,16 @@
       </c>
       <c r="C10">
         <v>35061.760000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.50264239577216674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11">
+        <f>AVERAGE(D2:D10)</f>
+        <v>0.55121647944276453</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="inserts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Number of sequences (paired end)</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>Inserts per second</t>
   </si>
 </sst>
 </file>
@@ -78,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,11 +207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113692312"/>
-        <c:axId val="-2106294568"/>
+        <c:axId val="1823196136"/>
+        <c:axId val="1823111752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113692312"/>
+        <c:axId val="1823196136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -236,7 +240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106294568"/>
+        <c:crossAx val="1823111752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -244,7 +248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106294568"/>
+        <c:axId val="1823111752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113692312"/>
+        <c:crossAx val="1823196136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -297,6 +301,211 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="119"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="19"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>inserts!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inserts per second</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>inserts!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>inserts!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>96618.35748792271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102197.2406745018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101988.7812340643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101690.6063302402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99477.74185525988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100194.1261193563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99240.19227787254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99513.31768071774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2109915832"/>
+        <c:axId val="1813760168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2109915832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of sequences (paired-end)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1813760168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1813760168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inserts per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2109915832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -507,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2106319992"/>
-        <c:axId val="-2106317720"/>
+        <c:axId val="1823227304"/>
+        <c:axId val="1823232552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2106319992"/>
+        <c:axId val="1823227304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106317720"/>
+        <c:crossAx val="1823232552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106317720"/>
+        <c:axId val="1823232552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106319992"/>
+        <c:crossAx val="1823227304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -609,16 +818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -632,6 +841,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -997,84 +1236,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="1">
         <v>500000</v>
       </c>
       <c r="B2" s="1">
         <v>10.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16">
+      <c r="C2" s="2">
+        <f>A2*2/B2</f>
+        <v>96618.357487922709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="1">
         <v>1000000</v>
       </c>
       <c r="B3" s="1">
         <v>19.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C9" si="0">A3*2/B3</f>
+        <v>102197.24067450178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="1">
         <v>2000000</v>
       </c>
       <c r="B4" s="1">
         <v>39.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>101988.78123406426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="1">
         <v>4000000</v>
       </c>
       <c r="B5" s="1">
         <v>78.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>101690.60633024025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="1">
         <v>8000000</v>
       </c>
       <c r="B6" s="1">
         <v>160.84</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>99477.741855259883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="1">
         <v>16000000</v>
       </c>
       <c r="B7" s="1">
         <v>319.38</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>100194.12611935625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="1">
         <v>32000000</v>
       </c>
       <c r="B8" s="1">
         <v>644.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>99240.192277872542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="1">
         <v>64000000</v>
       </c>
       <c r="B9" s="1">
         <v>1286.26</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>99513.317680717737</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/thesis/data and charts.xlsx
+++ b/thesis/data and charts.xlsx
@@ -207,11 +207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1823196136"/>
-        <c:axId val="1823111752"/>
+        <c:axId val="-2080263240"/>
+        <c:axId val="-2120757272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1823196136"/>
+        <c:axId val="-2080263240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1823111752"/>
+        <c:crossAx val="-2120757272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -248,7 +248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1823111752"/>
+        <c:axId val="-2120757272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,7 +278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1823196136"/>
+        <c:crossAx val="-2080263240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -412,11 +412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2109915832"/>
-        <c:axId val="1813760168"/>
+        <c:axId val="-2078734104"/>
+        <c:axId val="-2078728616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2109915832"/>
+        <c:axId val="-2078734104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1813760168"/>
+        <c:crossAx val="-2078728616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -453,9 +453,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1813760168"/>
+        <c:axId val="-2078728616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -483,7 +485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109915832"/>
+        <c:crossAx val="-2078734104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,11 +718,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1823227304"/>
-        <c:axId val="1823232552"/>
+        <c:axId val="2079355464"/>
+        <c:axId val="2079349928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1823227304"/>
+        <c:axId val="2079355464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,14 +744,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1823232552"/>
+        <c:crossAx val="2079349928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1823232552"/>
+        <c:axId val="2079349928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,21 +781,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1823227304"/>
+        <c:crossAx val="2079355464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1239,7 +1238,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
